--- a/data/derived/res_line/p_to_mw.xlsx
+++ b/data/derived/res_line/p_to_mw.xlsx
@@ -475,100 +475,100 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6.128171199901772</v>
+        <v>2.074994258398647</v>
       </c>
       <c r="C2">
-        <v>5.49276374393174</v>
+        <v>1.779919553868794</v>
       </c>
       <c r="D2">
-        <v>3.448269527320595</v>
+        <v>1.093348221382605</v>
       </c>
       <c r="E2">
-        <v>3.13673917209643</v>
+        <v>1.035248107531858</v>
       </c>
       <c r="F2">
-        <v>3.169033643178727</v>
+        <v>1.269685456394309</v>
       </c>
       <c r="G2">
-        <v>1.605614831670934</v>
+        <v>0.575623810893698</v>
       </c>
       <c r="H2">
-        <v>1.395663800321762</v>
+        <v>0.4463397125637012</v>
       </c>
       <c r="I2">
-        <v>1.10580377574477</v>
+        <v>0.3976045856250313</v>
       </c>
       <c r="J2">
-        <v>0.8726139614106356</v>
+        <v>0.3531972046337302</v>
       </c>
       <c r="K2">
-        <v>0.7593525921197557</v>
+        <v>0.3185235173558476</v>
       </c>
       <c r="L2">
-        <v>0.7042686361252571</v>
+        <v>0.2790377810311356</v>
       </c>
       <c r="M2">
-        <v>0.6948343483124957</v>
+        <v>0.3086257237759609</v>
       </c>
       <c r="N2">
-        <v>0.6300255679158762</v>
+        <v>0.2309532706131184</v>
       </c>
       <c r="O2">
-        <v>0.2708069740075644</v>
+        <v>0.1923719953579963</v>
       </c>
       <c r="P2">
-        <v>0.2105015563688604</v>
+        <v>0.1538345410433672</v>
       </c>
       <c r="Q2">
-        <v>0.1502608101120571</v>
+        <v>0.1153233880518033</v>
       </c>
       <c r="R2">
-        <v>0.09004551937238597</v>
+        <v>0.05761534294185846</v>
       </c>
       <c r="S2">
-        <v>-0.48095149439149</v>
+        <v>-0.2307372851890697</v>
       </c>
       <c r="T2">
-        <v>0.3909514943914985</v>
+        <v>0.1731372851890581</v>
       </c>
       <c r="U2">
-        <v>0.2993330482057472</v>
+        <v>0.1152488506488225</v>
       </c>
       <c r="V2">
-        <v>0.2090839994951103</v>
+        <v>0.05761475811911514</v>
       </c>
       <c r="W2">
-        <v>1.674996488464984</v>
+        <v>0.5774841422090535</v>
       </c>
       <c r="X2">
-        <v>1.576374465239028</v>
+        <v>0.3077423624134649</v>
       </c>
       <c r="Y2">
-        <v>1.141137610869049</v>
+        <v>0.0384083291304192</v>
       </c>
       <c r="Z2">
-        <v>1.442810120940021</v>
+        <v>0.554006022739773</v>
       </c>
       <c r="AA2">
-        <v>1.378872324913655</v>
+        <v>0.5152152342918659</v>
       </c>
       <c r="AB2">
-        <v>1.313753143859848</v>
+        <v>0.4763413962552384</v>
       </c>
       <c r="AC2">
-        <v>1.23609261856133</v>
+        <v>0.398029370162498</v>
       </c>
       <c r="AD2">
-        <v>1.103680044499891</v>
+        <v>0.2692225422919224</v>
       </c>
       <c r="AE2">
-        <v>0.4216934973000283</v>
+        <v>0.172988653225772</v>
       </c>
       <c r="AF2">
-        <v>0.2702106230935033</v>
+        <v>0.0384029240679761</v>
       </c>
       <c r="AG2">
-        <v>0.06001223605098648</v>
+        <v>1.317528628684312E-10</v>
       </c>
     </row>
     <row r="3" spans="1:33">
@@ -576,100 +576,100 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.03365641460573</v>
+        <v>1.959922673169331</v>
       </c>
       <c r="C3">
-        <v>5.407255362047282</v>
+        <v>1.683575026663096</v>
       </c>
       <c r="D3">
-        <v>3.416720949102386</v>
+        <v>1.041227981958518</v>
       </c>
       <c r="E3">
-        <v>3.109688483302354</v>
+        <v>0.9874655200747876</v>
       </c>
       <c r="F3">
-        <v>3.103036803055499</v>
+        <v>1.182645646059586</v>
       </c>
       <c r="G3">
-        <v>1.573567700703158</v>
+        <v>0.533043875483694</v>
       </c>
       <c r="H3">
-        <v>1.364020246635139</v>
+        <v>0.4119415747100944</v>
       </c>
       <c r="I3">
-        <v>1.077822266903761</v>
+        <v>0.3670822881362423</v>
       </c>
       <c r="J3">
-        <v>0.8542599307024215</v>
+        <v>0.325934914910755</v>
       </c>
       <c r="K3">
-        <v>0.7430864072411772</v>
+        <v>0.293904131807315</v>
       </c>
       <c r="L3">
-        <v>0.6883973362862774</v>
+        <v>0.2569744951069579</v>
       </c>
       <c r="M3">
-        <v>0.6797192240833207</v>
+        <v>0.2892522978645607</v>
       </c>
       <c r="N3">
-        <v>0.6151011389573982</v>
+        <v>0.2164859321980201</v>
       </c>
       <c r="O3">
-        <v>0.2708066608638846</v>
+        <v>0.1803267111812135</v>
       </c>
       <c r="P3">
-        <v>0.2105013616152401</v>
+        <v>0.1442059849111652</v>
       </c>
       <c r="Q3">
-        <v>0.1502607088082857</v>
+        <v>0.1081083631180578</v>
       </c>
       <c r="R3">
-        <v>0.09004550170459333</v>
+        <v>0.05401347439840274</v>
       </c>
       <c r="S3">
-        <v>-0.4734396427031502</v>
+        <v>-0.2162963459788938</v>
       </c>
       <c r="T3">
-        <v>0.3834396427031485</v>
+        <v>0.1622963459789082</v>
       </c>
       <c r="U3">
-        <v>0.2918777275500862</v>
+        <v>0.1080429203068447</v>
       </c>
       <c r="V3">
-        <v>0.2016401815034377</v>
+        <v>0.05401296634638644</v>
       </c>
       <c r="W3">
-        <v>1.628542300303026</v>
+        <v>0.5413036821397308</v>
       </c>
       <c r="X3">
-        <v>1.530362945540912</v>
+        <v>0.288476383956476</v>
       </c>
       <c r="Y3">
-        <v>1.095958038503729</v>
+        <v>0.03600731575435874</v>
       </c>
       <c r="Z3">
-        <v>1.411597024143191</v>
+        <v>0.5191653006407289</v>
       </c>
       <c r="AA3">
-        <v>1.347778183346201</v>
+        <v>0.4828222309074392</v>
       </c>
       <c r="AB3">
-        <v>1.282818529891594</v>
+        <v>0.4464062761538659</v>
       </c>
       <c r="AC3">
-        <v>1.205726160509657</v>
+        <v>0.3730790311432234</v>
       </c>
       <c r="AD3">
-        <v>1.073724611983461</v>
+        <v>0.2523708492329005</v>
       </c>
       <c r="AE3">
-        <v>0.4216909691070735</v>
+        <v>0.1621655693541871</v>
       </c>
       <c r="AF3">
-        <v>0.2702103084606886</v>
+        <v>0.03600256638554641</v>
       </c>
       <c r="AG3">
-        <v>0.06001221774032349</v>
+        <v>1.320132119261462E-10</v>
       </c>
     </row>
     <row r="4" spans="1:33">
@@ -677,100 +677,100 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5.977355836419974</v>
+        <v>1.895345570335394</v>
       </c>
       <c r="C4">
-        <v>5.355635937798605</v>
+        <v>1.628399711741466</v>
       </c>
       <c r="D4">
-        <v>3.393004829756975</v>
+        <v>1.008368459407326</v>
       </c>
       <c r="E4">
-        <v>3.08890673168451</v>
+        <v>0.9569209846898111</v>
       </c>
       <c r="F4">
-        <v>3.070178921714017</v>
+        <v>1.139305466995488</v>
       </c>
       <c r="G4">
-        <v>1.557640254429386</v>
+        <v>0.5118763273157235</v>
       </c>
       <c r="H4">
-        <v>1.348290587471086</v>
+        <v>0.3948593617292361</v>
       </c>
       <c r="I4">
-        <v>1.06388723411969</v>
+        <v>0.3518923339291171</v>
       </c>
       <c r="J4">
-        <v>0.8451167463154883</v>
+        <v>0.3123482646394808</v>
       </c>
       <c r="K4">
-        <v>0.7349667376310012</v>
+        <v>0.2816126675316434</v>
       </c>
       <c r="L4">
-        <v>0.6804712468888265</v>
+        <v>0.2459562012259625</v>
       </c>
       <c r="M4">
-        <v>0.6721638506641064</v>
+        <v>0.2795698399759275</v>
       </c>
       <c r="N4">
-        <v>0.6076395131619151</v>
+        <v>0.209253918002541</v>
       </c>
       <c r="O4">
-        <v>0.2708065044101032</v>
+        <v>0.1743051826831669</v>
       </c>
       <c r="P4">
-        <v>0.2105012643117944</v>
+        <v>0.1393924094009231</v>
       </c>
       <c r="Q4">
-        <v>0.1502606581946199</v>
+        <v>0.1045012204423189</v>
       </c>
       <c r="R4">
-        <v>0.0900454928774006</v>
+        <v>0.05221258612975186</v>
       </c>
       <c r="S4">
-        <v>-0.469684433306531</v>
+        <v>-0.2090768740494125</v>
       </c>
       <c r="T4">
-        <v>0.3796844333065197</v>
+        <v>0.1568768740494187</v>
       </c>
       <c r="U4">
-        <v>0.2881503672231152</v>
+        <v>0.1044400997181192</v>
       </c>
       <c r="V4">
-        <v>0.1979184622808263</v>
+        <v>0.05221211415446121</v>
       </c>
       <c r="W4">
-        <v>1.605339362932523</v>
+        <v>0.5232178716478746</v>
       </c>
       <c r="X4">
-        <v>1.507376431978126</v>
+        <v>0.2788450129204847</v>
       </c>
       <c r="Y4">
-        <v>1.073377761539802</v>
+        <v>0.03480683393336959</v>
       </c>
       <c r="Z4">
-        <v>1.396005106416419</v>
+        <v>0.5017559113494654</v>
       </c>
       <c r="AA4">
-        <v>1.332244692268907</v>
+        <v>0.4666355162033373</v>
       </c>
       <c r="AB4">
-        <v>1.267363337226041</v>
+        <v>0.4314470642148728</v>
       </c>
       <c r="AC4">
-        <v>1.190549608684758</v>
+        <v>0.3606076109062205</v>
       </c>
       <c r="AD4">
-        <v>1.058749464246326</v>
+        <v>0.2439462934603649</v>
       </c>
       <c r="AE4">
-        <v>0.4216897100017653</v>
+        <v>0.1567546041593363</v>
       </c>
       <c r="AF4">
-        <v>0.2702101517657482</v>
+        <v>0.03480239648234546</v>
       </c>
       <c r="AG4">
-        <v>0.06001220862118756</v>
+        <v>1.320641414219556E-10</v>
       </c>
     </row>
     <row r="5" spans="1:33">
@@ -778,100 +778,100 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5.917102513441705</v>
+        <v>1.827723943590854</v>
       </c>
       <c r="C5">
-        <v>5.300136537152365</v>
+        <v>1.570189166895352</v>
       </c>
       <c r="D5">
-        <v>3.365782205325996</v>
+        <v>0.9725263902853593</v>
       </c>
       <c r="E5">
-        <v>3.064903604765994</v>
+        <v>0.9234354382620291</v>
       </c>
       <c r="F5">
-        <v>3.037413780693939</v>
+        <v>1.096083860973234</v>
       </c>
       <c r="G5">
-        <v>1.541776157188675</v>
+        <v>0.4907894460459914</v>
       </c>
       <c r="H5">
-        <v>1.332621640254137</v>
+        <v>0.3778541489934663</v>
       </c>
       <c r="I5">
-        <v>1.04998892749181</v>
+        <v>0.3367492983344658</v>
       </c>
       <c r="J5">
-        <v>0.8359958615900247</v>
+        <v>0.2987909455245468</v>
       </c>
       <c r="K5">
-        <v>0.7268559255632793</v>
+        <v>0.2693332359769076</v>
       </c>
       <c r="L5">
-        <v>0.6725514710657685</v>
+        <v>0.2349467271353381</v>
       </c>
       <c r="M5">
-        <v>0.6646099352454427</v>
+        <v>0.2698902151869746</v>
       </c>
       <c r="N5">
-        <v>0.6001782795185494</v>
+        <v>0.2020230055714181</v>
       </c>
       <c r="O5">
-        <v>0.2708063480346061</v>
+        <v>0.1682843954799444</v>
       </c>
       <c r="P5">
-        <v>0.2105011670570998</v>
+        <v>0.1345793015482029</v>
       </c>
       <c r="Q5">
-        <v>0.1502606076063442</v>
+        <v>0.100894323910315</v>
       </c>
       <c r="R5">
-        <v>0.09004548405461013</v>
+        <v>0.05041172848132566</v>
       </c>
       <c r="S5">
-        <v>-0.4659297022549513</v>
+        <v>-0.201858066850297</v>
       </c>
       <c r="T5">
-        <v>0.375929702254937</v>
+        <v>0.1514580668503142</v>
       </c>
       <c r="U5">
-        <v>0.2844232070001876</v>
+        <v>0.1008373754579731</v>
       </c>
       <c r="V5">
-        <v>0.1941968695995592</v>
+        <v>0.0504112910734655</v>
       </c>
       <c r="W5">
-        <v>1.582152541308519</v>
+        <v>0.5051350050962781</v>
       </c>
       <c r="X5">
-        <v>1.484402754198161</v>
+        <v>0.2692147196501646</v>
       </c>
       <c r="Y5">
-        <v>1.05080381981361</v>
+        <v>0.03360636867379364</v>
       </c>
       <c r="Z5">
-        <v>1.380422911070551</v>
+        <v>0.4843538171188498</v>
       </c>
       <c r="AA5">
-        <v>1.316720225200609</v>
+        <v>0.4504553086188386</v>
       </c>
       <c r="AB5">
-        <v>1.251916194803002</v>
+        <v>0.4164934025645172</v>
       </c>
       <c r="AC5">
-        <v>1.175377494047236</v>
+        <v>0.3481386831362709</v>
       </c>
       <c r="AD5">
-        <v>1.043776023381999</v>
+        <v>0.2355225956682679</v>
       </c>
       <c r="AE5">
-        <v>0.4216884541998684</v>
+        <v>0.1513440223092528</v>
       </c>
       <c r="AF5">
-        <v>0.2702099954819424</v>
+        <v>0.03360223251999931</v>
       </c>
       <c r="AG5">
-        <v>0.06001219952601908</v>
+        <v>1.321858488349836E-10</v>
       </c>
     </row>
     <row r="6" spans="1:33">
@@ -879,100 +879,100 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5.946111006978526</v>
+        <v>1.850633891785264</v>
       </c>
       <c r="C6">
-        <v>5.328554358533599</v>
+        <v>1.592933092499265</v>
       </c>
       <c r="D6">
-        <v>3.391076403951037</v>
+        <v>0.9944184216089554</v>
       </c>
       <c r="E6">
-        <v>3.087960796878824</v>
+        <v>0.9447526648053051</v>
       </c>
       <c r="F6">
-        <v>3.037413780694258</v>
+        <v>1.096083860972983</v>
       </c>
       <c r="G6">
-        <v>1.541776157188623</v>
+        <v>0.4907894460458174</v>
       </c>
       <c r="H6">
-        <v>1.33262164025408</v>
+        <v>0.3778541489933493</v>
       </c>
       <c r="I6">
-        <v>1.049988927491799</v>
+        <v>0.336749298334276</v>
       </c>
       <c r="J6">
-        <v>0.8359958615899752</v>
+        <v>0.2987909455243906</v>
       </c>
       <c r="K6">
-        <v>0.7268559255632592</v>
+        <v>0.2693332359766863</v>
       </c>
       <c r="L6">
-        <v>0.6725514710658224</v>
+        <v>0.2349467271353157</v>
       </c>
       <c r="M6">
-        <v>0.6646099352454831</v>
+        <v>0.2698902151870325</v>
       </c>
       <c r="N6">
-        <v>0.6001782795186108</v>
+        <v>0.2020230055714257</v>
       </c>
       <c r="O6">
-        <v>0.2708063480346395</v>
+        <v>0.1682843954800498</v>
       </c>
       <c r="P6">
-        <v>0.2105011670570826</v>
+        <v>0.1345793015482834</v>
       </c>
       <c r="Q6">
-        <v>0.1502606076063389</v>
+        <v>0.1008943239103229</v>
       </c>
       <c r="R6">
-        <v>0.09004548405460118</v>
+        <v>0.05041172848127398</v>
       </c>
       <c r="S6">
-        <v>-0.4659297131794131</v>
+        <v>-0.2018580672360745</v>
       </c>
       <c r="T6">
-        <v>0.3759297131794009</v>
+        <v>0.1514580672360823</v>
       </c>
       <c r="U6">
-        <v>0.2844232093069898</v>
+        <v>0.1008373755138597</v>
       </c>
       <c r="V6">
-        <v>0.1941968706113567</v>
+        <v>0.05041129109037264</v>
       </c>
       <c r="W6">
-        <v>1.582153172228387</v>
+        <v>0.5051350115183986</v>
       </c>
       <c r="X6">
-        <v>1.484403211046628</v>
+        <v>0.2692147219988832</v>
       </c>
       <c r="Y6">
-        <v>1.050803970733758</v>
+        <v>0.03360636870986478</v>
       </c>
       <c r="Z6">
-        <v>1.380422911070614</v>
+        <v>0.484353817118746</v>
       </c>
       <c r="AA6">
-        <v>1.316720225200915</v>
+        <v>0.4504553086185186</v>
       </c>
       <c r="AB6">
-        <v>1.251916194803194</v>
+        <v>0.4164934025644777</v>
       </c>
       <c r="AC6">
-        <v>1.175377494047362</v>
+        <v>0.3481386831361873</v>
       </c>
       <c r="AD6">
-        <v>1.04377602338211</v>
+        <v>0.235522595668148</v>
       </c>
       <c r="AE6">
-        <v>0.4216884541998434</v>
+        <v>0.1513440223091003</v>
       </c>
       <c r="AF6">
-        <v>0.2702099954819844</v>
+        <v>0.03360223251991109</v>
       </c>
       <c r="AG6">
-        <v>0.06001219952594418</v>
+        <v>1.321856680205544E-10</v>
       </c>
     </row>
     <row r="7" spans="1:33">
@@ -980,100 +980,100 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5.834239063546647</v>
+        <v>1.817658539019476</v>
       </c>
       <c r="C7">
-        <v>5.2154138365355</v>
+        <v>1.551276296755727</v>
       </c>
       <c r="D7">
-        <v>3.268086674345463</v>
+        <v>0.9341329569415698</v>
       </c>
       <c r="E7">
-        <v>2.974932846449239</v>
+        <v>0.8846270615070202</v>
       </c>
       <c r="F7">
-        <v>2.928179336920347</v>
+        <v>1.029571440847813</v>
       </c>
       <c r="G7">
-        <v>1.422250476484289</v>
+        <v>0.4045401823657906</v>
       </c>
       <c r="H7">
-        <v>1.214405810756953</v>
+        <v>0.2879154622101793</v>
       </c>
       <c r="I7">
-        <v>0.943610714488496</v>
+        <v>0.248268872473187</v>
       </c>
       <c r="J7">
-        <v>0.732975537249748</v>
+        <v>0.210675420080178</v>
       </c>
       <c r="K7">
-        <v>0.6308444604534944</v>
+        <v>0.1818621748421439</v>
       </c>
       <c r="L7">
-        <v>0.5778596290039001</v>
+        <v>0.1465625072534792</v>
       </c>
       <c r="M7">
-        <v>0.572436699257863</v>
+        <v>0.1808390564832343</v>
       </c>
       <c r="N7">
-        <v>0.5090515670711083</v>
+        <v>0.1109394730180978</v>
       </c>
       <c r="O7">
-        <v>0.2708044438149038</v>
+        <v>0.1743044229286137</v>
       </c>
       <c r="P7">
-        <v>0.2104999827673664</v>
+        <v>0.1393919302374556</v>
       </c>
       <c r="Q7">
-        <v>0.1502599915836145</v>
+        <v>0.1045009683005627</v>
       </c>
       <c r="R7">
-        <v>0.09004537661794952</v>
+        <v>0.05221255476934449</v>
       </c>
       <c r="S7">
-        <v>-0.4696843786909516</v>
+        <v>-0.209076872647559</v>
       </c>
       <c r="T7">
-        <v>0.3796843786909436</v>
+        <v>0.1568768726475345</v>
       </c>
       <c r="U7">
-        <v>0.288150355584507</v>
+        <v>0.1044400995150309</v>
       </c>
       <c r="V7">
-        <v>0.1979184571407408</v>
+        <v>0.05221211409312507</v>
       </c>
       <c r="W7">
-        <v>1.605336173179861</v>
+        <v>0.5232178483266503</v>
       </c>
       <c r="X7">
-        <v>1.507374118439145</v>
+        <v>0.27884500439081</v>
       </c>
       <c r="Y7">
-        <v>1.073376990777497</v>
+        <v>0.03480683380235021</v>
       </c>
       <c r="Z7">
-        <v>1.396018022254583</v>
+        <v>0.5017570737781994</v>
       </c>
       <c r="AA7">
-        <v>1.332256535336327</v>
+        <v>0.466636552858902</v>
       </c>
       <c r="AB7">
-        <v>1.267373784667684</v>
+        <v>0.4314479482578671</v>
       </c>
       <c r="AC7">
-        <v>1.190555238716952</v>
+        <v>0.3606080076109281</v>
       </c>
       <c r="AD7">
-        <v>1.058751709824092</v>
+        <v>0.2439464299056364</v>
       </c>
       <c r="AE7">
-        <v>0.4216901984946729</v>
+        <v>0.156754665098556</v>
       </c>
       <c r="AF7">
-        <v>0.270210212558428</v>
+        <v>0.03480239742625418</v>
       </c>
       <c r="AG7">
-        <v>0.06001221215908443</v>
+        <v>1.320440548352106E-10</v>
       </c>
     </row>
     <row r="8" spans="1:33">
@@ -1081,100 +1081,100 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5.759411367384928</v>
+        <v>1.864174962561037</v>
       </c>
       <c r="C8">
-        <v>5.131464266024303</v>
+        <v>1.57069668893266</v>
       </c>
       <c r="D8">
-        <v>3.126389114447282</v>
+        <v>0.8922857726971912</v>
       </c>
       <c r="E8">
-        <v>2.842949651264159</v>
+        <v>0.839639263430458</v>
       </c>
       <c r="F8">
-        <v>2.833637402609837</v>
+        <v>1.008789907576433</v>
       </c>
       <c r="G8">
-        <v>1.285592016794177</v>
+        <v>0.320483469056197</v>
       </c>
       <c r="H8">
-        <v>1.07911262334772</v>
+        <v>0.1921063876416282</v>
       </c>
       <c r="I8">
-        <v>0.8206371854018324</v>
+        <v>0.1509665018705517</v>
       </c>
       <c r="J8">
-        <v>0.6062062825922196</v>
+        <v>0.1110050325785321</v>
       </c>
       <c r="K8">
-        <v>0.5113822673477125</v>
+        <v>0.08069658682753526</v>
       </c>
       <c r="L8">
-        <v>0.4597710837831837</v>
+        <v>0.0420187358261994</v>
       </c>
       <c r="M8">
-        <v>0.4569679239979775</v>
+        <v>0.07310169474703597</v>
       </c>
       <c r="N8">
-        <v>0.3946737125385518</v>
+        <v>-0.003747303466946533</v>
       </c>
       <c r="O8">
-        <v>0.2708020684107283</v>
+        <v>0.1923697904154214</v>
       </c>
       <c r="P8">
-        <v>0.2104985054401568</v>
+        <v>0.1538331503424521</v>
       </c>
       <c r="Q8">
-        <v>0.1502592231364935</v>
+        <v>0.1153226562129123</v>
       </c>
       <c r="R8">
-        <v>0.09004524259815726</v>
+        <v>0.0576152519150232</v>
       </c>
       <c r="S8">
-        <v>-0.4809513450216507</v>
+        <v>-0.2307372803668401</v>
       </c>
       <c r="T8">
-        <v>0.3909513450216512</v>
+        <v>0.1731372803668411</v>
       </c>
       <c r="U8">
-        <v>0.2993330155323352</v>
+        <v>0.1152488499501802</v>
       </c>
       <c r="V8">
-        <v>0.2090839847841035</v>
+        <v>0.05761475790801212</v>
       </c>
       <c r="W8">
-        <v>1.674987477219925</v>
+        <v>0.5774840620855416</v>
       </c>
       <c r="X8">
-        <v>1.576367898598379</v>
+        <v>0.3077423331026898</v>
       </c>
       <c r="Y8">
-        <v>1.141135371147509</v>
+        <v>0.03840832868013593</v>
       </c>
       <c r="Z8">
-        <v>1.442843218159594</v>
+        <v>0.5540094241469103</v>
       </c>
       <c r="AA8">
-        <v>1.378902679019128</v>
+        <v>0.5152182678067644</v>
       </c>
       <c r="AB8">
-        <v>1.313779923930586</v>
+        <v>0.476343983298534</v>
       </c>
       <c r="AC8">
-        <v>1.236107042217948</v>
+        <v>0.3980305312515697</v>
       </c>
       <c r="AD8">
-        <v>1.10368577431133</v>
+        <v>0.2692229417142926</v>
       </c>
       <c r="AE8">
-        <v>0.4216946931179751</v>
+        <v>0.172988831630929</v>
       </c>
       <c r="AF8">
-        <v>0.2702107719128682</v>
+        <v>0.03840292683154482</v>
       </c>
       <c r="AG8">
-        <v>0.06001224471183654</v>
+        <v>1.316580878234143E-10</v>
       </c>
     </row>
     <row r="9" spans="1:33">
@@ -1182,100 +1182,100 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.902064317550867</v>
+        <v>2.150376693862881</v>
       </c>
       <c r="C9">
-        <v>5.250086180993912</v>
+        <v>1.801222143601728</v>
       </c>
       <c r="D9">
-        <v>3.098583792173724</v>
+        <v>0.9928124382687702</v>
       </c>
       <c r="E9">
-        <v>2.812827483375711</v>
+        <v>0.9290422541239552</v>
       </c>
       <c r="F9">
-        <v>2.803444553583523</v>
+        <v>1.08934519387979</v>
       </c>
       <c r="G9">
-        <v>1.163765105455977</v>
+        <v>0.2718577697265819</v>
       </c>
       <c r="H9">
-        <v>0.9583695850366415</v>
+        <v>0.1196023185874525</v>
       </c>
       <c r="I9">
-        <v>0.7096464007634395</v>
+        <v>0.07230947983812998</v>
       </c>
       <c r="J9">
-        <v>0.478725612830825</v>
+        <v>0.02574923219476215</v>
       </c>
       <c r="K9">
-        <v>0.3896992503842658</v>
+        <v>-0.009389007099947734</v>
       </c>
       <c r="L9">
-        <v>0.3391746437154416</v>
+        <v>-0.05516525455505616</v>
       </c>
       <c r="M9">
-        <v>0.3384399853470956</v>
+        <v>-0.03110690618600357</v>
       </c>
       <c r="N9">
-        <v>0.2770109970599363</v>
+        <v>-0.1223158131465583</v>
       </c>
       <c r="O9">
-        <v>0.270799641663388</v>
+        <v>0.2285204687368044</v>
       </c>
       <c r="P9">
-        <v>0.2104969961880842</v>
+        <v>0.1827281734235607</v>
       </c>
       <c r="Q9">
-        <v>0.1502584380863332</v>
+        <v>0.1369726553694254</v>
       </c>
       <c r="R9">
-        <v>0.09004510568300896</v>
+        <v>0.06842147020402216</v>
       </c>
       <c r="S9">
-        <v>-0.503498348710909</v>
+        <v>-0.2740760821103728</v>
       </c>
       <c r="T9">
-        <v>0.4134983487109167</v>
+        <v>0.2056760821103698</v>
       </c>
       <c r="U9">
-        <v>0.3217037749228178</v>
+        <v>0.1368689575840715</v>
       </c>
       <c r="V9">
-        <v>0.2314184743304285</v>
+        <v>0.06842083336723818</v>
       </c>
       <c r="W9">
-        <v>1.814736623881535</v>
+        <v>0.6860962926182068</v>
       </c>
       <c r="X9">
-        <v>1.714710549011233</v>
+        <v>0.3655662176780376</v>
       </c>
       <c r="Y9">
-        <v>1.276826468565515</v>
+        <v>0.04561176761631466</v>
       </c>
       <c r="Z9">
-        <v>1.536747001663652</v>
+        <v>0.6587128764618968</v>
       </c>
       <c r="AA9">
-        <v>1.472430302402244</v>
+        <v>0.6125589985231934</v>
       </c>
       <c r="AB9">
-        <v>1.40680225792566</v>
+        <v>0.5662872966565088</v>
       </c>
       <c r="AC9">
-        <v>1.327326528847524</v>
+        <v>0.4729435191358888</v>
       </c>
       <c r="AD9">
-        <v>1.193598354965239</v>
+        <v>0.3197993607677718</v>
       </c>
       <c r="AE9">
-        <v>0.4217032028421483</v>
+        <v>0.2054676195481494</v>
       </c>
       <c r="AF9">
-        <v>0.2702118309506166</v>
+        <v>0.04560414767152222</v>
       </c>
       <c r="AG9">
-        <v>0.06001230634485553</v>
+        <v>1.310247937673836E-10</v>
       </c>
     </row>
     <row r="10" spans="1:33">
@@ -1283,100 +1283,100 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.029442543222785</v>
+        <v>2.405869766411342</v>
       </c>
       <c r="C10">
-        <v>5.355471142478224</v>
+        <v>2.005548646886407</v>
       </c>
       <c r="D10">
-        <v>3.069523944011027</v>
+        <v>1.077448593701717</v>
       </c>
       <c r="E10">
-        <v>2.781896108859985</v>
+        <v>1.003291878045354</v>
       </c>
       <c r="F10">
-        <v>2.792835394153248</v>
+        <v>1.175414313862619</v>
       </c>
       <c r="G10">
-        <v>1.067969594617518</v>
+        <v>0.2389412685919182</v>
       </c>
       <c r="H10">
-        <v>0.863355120977286</v>
+        <v>0.06475663032834764</v>
       </c>
       <c r="I10">
-        <v>0.6216470933719229</v>
+        <v>0.01144013085213376</v>
       </c>
       <c r="J10">
-        <v>0.3744584592551129</v>
+        <v>-0.04140440441610063</v>
       </c>
       <c r="K10">
-        <v>0.2895539134535752</v>
+        <v>-0.08121355594003958</v>
       </c>
       <c r="L10">
-        <v>0.2398003658197501</v>
+        <v>-0.1335437006908162</v>
       </c>
       <c r="M10">
-        <v>0.2405323553676942</v>
+        <v>-0.11601703614622</v>
       </c>
       <c r="N10">
-        <v>0.1796235463046721</v>
+        <v>-0.2205403513383596</v>
       </c>
       <c r="O10">
-        <v>0.2707976458966416</v>
+        <v>0.2616810298199298</v>
       </c>
       <c r="P10">
-        <v>0.2104957549782138</v>
+        <v>0.2092294378904009</v>
       </c>
       <c r="Q10">
-        <v>0.1502577924628664</v>
+        <v>0.1568259424001141</v>
       </c>
       <c r="R10">
-        <v>0.09004499308460107</v>
+        <v>0.07832809780617059</v>
       </c>
       <c r="S10">
-        <v>-0.5241816521475132</v>
+        <v>-0.3138244314467199</v>
       </c>
       <c r="T10">
-        <v>0.4341816521474888</v>
+        <v>0.2355244314467123</v>
       </c>
       <c r="U10">
-        <v>0.3422166628876379</v>
+        <v>0.15669045013327</v>
       </c>
       <c r="V10">
-        <v>0.2518957761027954</v>
+        <v>0.07832732758927433</v>
       </c>
       <c r="W10">
-        <v>1.943361725101217</v>
+        <v>0.7857512987510185</v>
       </c>
       <c r="X10">
-        <v>1.841940045103488</v>
+        <v>0.4186058132748424</v>
       </c>
       <c r="Y10">
-        <v>1.401414783478141</v>
+        <v>0.05221544825470681</v>
       </c>
       <c r="Z10">
-        <v>1.623142251640696</v>
+        <v>0.7549277325581214</v>
       </c>
       <c r="AA10">
-        <v>1.558457972911442</v>
+        <v>0.7019991704092845</v>
       </c>
       <c r="AB10">
-        <v>1.492335005936343</v>
+        <v>0.6489154861750233</v>
       </c>
       <c r="AC10">
-        <v>1.411088910631693</v>
+        <v>0.5416947151881205</v>
       </c>
       <c r="AD10">
-        <v>1.276073769568296</v>
+        <v>0.3661889674225321</v>
       </c>
       <c r="AE10">
-        <v>0.4217110602785418</v>
+        <v>0.2352523072937456</v>
       </c>
       <c r="AF10">
-        <v>0.2702128088172476</v>
+        <v>0.05220545997511857</v>
       </c>
       <c r="AG10">
-        <v>0.06001236325406882</v>
+        <v>1.30395170281196E-10</v>
       </c>
     </row>
     <row r="11" spans="1:33">
@@ -1384,100 +1384,100 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.134399105081002</v>
+        <v>2.598823626004332</v>
       </c>
       <c r="C11">
-        <v>5.444164998859763</v>
+        <v>2.161117261277778</v>
       </c>
       <c r="D11">
-        <v>3.058782177126705</v>
+        <v>1.145171807178258</v>
       </c>
       <c r="E11">
-        <v>2.768877629740834</v>
+        <v>1.063030375640993</v>
       </c>
       <c r="F11">
-        <v>2.798491786612173</v>
+        <v>1.24815579723464</v>
       </c>
       <c r="G11">
-        <v>1.010893765156318</v>
+        <v>0.2247581432380111</v>
       </c>
       <c r="H11">
-        <v>0.8067114140238103</v>
+        <v>0.0346022516997096</v>
       </c>
       <c r="I11">
-        <v>0.5688764300967851</v>
+        <v>-0.02328943745484637</v>
       </c>
       <c r="J11">
-        <v>0.3091220223961636</v>
+        <v>-0.08082039972721441</v>
       </c>
       <c r="K11">
-        <v>0.2264693317953468</v>
+        <v>-0.1241435692047655</v>
       </c>
       <c r="L11">
-        <v>0.1771360513960804</v>
+        <v>-0.1812623656368239</v>
       </c>
       <c r="M11">
-        <v>0.178666412007754</v>
+        <v>-0.1685286616824309</v>
       </c>
       <c r="N11">
-        <v>0.1179955592788951</v>
+        <v>-0.2827888247620112</v>
       </c>
       <c r="O11">
-        <v>0.2707963888927698</v>
+        <v>0.2858113565006269</v>
       </c>
       <c r="P11">
-        <v>0.2104949732231122</v>
+        <v>0.228511639790871</v>
       </c>
       <c r="Q11">
-        <v>0.150257385828902</v>
+        <v>0.1712692009320945</v>
       </c>
       <c r="R11">
-        <v>0.09004492216663995</v>
+        <v>0.08553347838138679</v>
       </c>
       <c r="S11">
-        <v>-0.5392332270611995</v>
+        <v>-0.3427450408521732</v>
       </c>
       <c r="T11">
-        <v>0.4492332270611804</v>
+        <v>0.2572450408521655</v>
       </c>
       <c r="U11">
-        <v>0.3571389583228993</v>
+        <v>0.1711079249828205</v>
       </c>
       <c r="V11">
-        <v>0.2667907810738356</v>
+        <v>0.08553260802846285</v>
       </c>
       <c r="W11">
-        <v>2.03722528324036</v>
+        <v>0.8582842797211171</v>
       </c>
       <c r="X11">
-        <v>1.93472377813343</v>
+        <v>0.457200819246866</v>
       </c>
       <c r="Y11">
-        <v>1.492149248379171</v>
+        <v>0.0570184441659331</v>
       </c>
       <c r="Z11">
-        <v>1.686167073904394</v>
+        <v>0.8250458485048133</v>
       </c>
       <c r="AA11">
-        <v>1.621201681376858</v>
+        <v>0.7671747657384479</v>
       </c>
       <c r="AB11">
-        <v>1.554699548177631</v>
+        <v>0.7091180952005564</v>
       </c>
       <c r="AC11">
-        <v>1.472094577647068</v>
+        <v>0.5917447586625606</v>
       </c>
       <c r="AD11">
-        <v>1.336089547808789</v>
+        <v>0.3999438107927696</v>
       </c>
       <c r="AE11">
-        <v>0.4217167870148522</v>
+        <v>0.2569214750294487</v>
       </c>
       <c r="AF11">
-        <v>0.2702135215192716</v>
+        <v>0.05700653181323734</v>
       </c>
       <c r="AG11">
-        <v>0.0600124047316443</v>
+        <v>1.299623526438071E-10</v>
       </c>
     </row>
     <row r="12" spans="1:33">
@@ -1485,100 +1485,100 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.171065098307281</v>
+        <v>2.677335928452521</v>
       </c>
       <c r="C12">
-        <v>5.473013309544898</v>
+        <v>2.22107405064357</v>
       </c>
       <c r="D12">
-        <v>3.039485847160017</v>
+        <v>1.161925635788466</v>
       </c>
       <c r="E12">
-        <v>2.749621567398147</v>
+        <v>1.076290760088158</v>
       </c>
       <c r="F12">
-        <v>2.825057898621101</v>
+        <v>1.303687897614406</v>
       </c>
       <c r="G12">
-        <v>1.005159480938736</v>
+        <v>0.23641969770099</v>
       </c>
       <c r="H12">
-        <v>0.801005230916048</v>
+        <v>0.03824646704051142</v>
       </c>
       <c r="I12">
-        <v>0.5634117257128852</v>
+        <v>-0.02214843332717444</v>
       </c>
       <c r="J12">
-        <v>0.2963637300793163</v>
+        <v>-0.08213944369738796</v>
       </c>
       <c r="K12">
-        <v>0.2138628726480544</v>
+        <v>-0.1273248810713878</v>
       </c>
       <c r="L12">
-        <v>0.1645566443213088</v>
+        <v>-0.1868561341229552</v>
       </c>
       <c r="M12">
-        <v>0.1661364817582603</v>
+        <v>-0.1765490529873578</v>
       </c>
       <c r="N12">
-        <v>0.1055052663320818</v>
+        <v>-0.2956345627368669</v>
       </c>
       <c r="O12">
-        <v>0.2707961346910382</v>
+        <v>0.2978811560690561</v>
       </c>
       <c r="P12">
-        <v>0.2104948151304026</v>
+        <v>0.2381556670765791</v>
       </c>
       <c r="Q12">
-        <v>0.1502573035962657</v>
+        <v>0.1784923710592385</v>
       </c>
       <c r="R12">
-        <v>0.09004490782509443</v>
+        <v>0.08913636041935627</v>
       </c>
       <c r="S12">
-        <v>-0.5467619059316726</v>
+        <v>-0.3572093685780031</v>
       </c>
       <c r="T12">
-        <v>0.4567619059316639</v>
+        <v>0.2681093685780321</v>
       </c>
       <c r="U12">
-        <v>0.3646013156502603</v>
+        <v>0.1783172457015208</v>
       </c>
       <c r="V12">
-        <v>0.2742390485283149</v>
+        <v>0.08913542457535269</v>
       </c>
       <c r="W12">
-        <v>2.084257738516976</v>
+        <v>0.8945686862293383</v>
       </c>
       <c r="X12">
-        <v>1.981195833798282</v>
+        <v>0.4765048928829358</v>
       </c>
       <c r="Y12">
-        <v>1.53755606494066</v>
+        <v>0.05942004315309404</v>
       </c>
       <c r="Z12">
-        <v>1.71773709040306</v>
+        <v>0.8601500516024559</v>
       </c>
       <c r="AA12">
-        <v>1.652627039327346</v>
+        <v>0.799802848918555</v>
       </c>
       <c r="AB12">
-        <v>1.585929579166871</v>
+        <v>0.739253774996213</v>
       </c>
       <c r="AC12">
-        <v>1.502623769775261</v>
+        <v>0.6167852392701941</v>
       </c>
       <c r="AD12">
-        <v>1.366107559764857</v>
+        <v>0.416826562230622</v>
       </c>
       <c r="AE12">
-        <v>0.4217195560134541</v>
+        <v>0.2677584420366395</v>
       </c>
       <c r="AF12">
-        <v>0.2702138661269689</v>
+        <v>0.05940710467218589</v>
       </c>
       <c r="AG12">
-        <v>0.06001242478704674</v>
+        <v>1.297737411848636E-10</v>
       </c>
     </row>
     <row r="13" spans="1:33">
@@ -1586,100 +1586,100 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.208128267797974</v>
+        <v>2.715468481835842</v>
       </c>
       <c r="C13">
-        <v>5.50755410629649</v>
+        <v>2.254385618605701</v>
       </c>
       <c r="D13">
-        <v>3.058991530585146</v>
+        <v>1.183516894473637</v>
       </c>
       <c r="E13">
-        <v>2.767052362824279</v>
+        <v>1.096411294929957</v>
       </c>
       <c r="F13">
-        <v>2.852558539146706</v>
+        <v>1.334550021205995</v>
       </c>
       <c r="G13">
-        <v>1.023815692821378</v>
+        <v>0.2559898326077899</v>
       </c>
       <c r="H13">
-        <v>0.8195064108610746</v>
+        <v>0.05578190944120606</v>
       </c>
       <c r="I13">
-        <v>0.5805122258055709</v>
+        <v>-0.005444128556985625</v>
       </c>
       <c r="J13">
-        <v>0.3107698786694713</v>
+        <v>-0.06616075471918784</v>
       </c>
       <c r="K13">
-        <v>0.2274763091402622</v>
+        <v>-0.111910485736755</v>
       </c>
       <c r="L13">
-        <v>0.1780207613166803</v>
+        <v>-0.1720616918645597</v>
       </c>
       <c r="M13">
-        <v>0.1793148182676337</v>
+        <v>-0.1623887382430711</v>
       </c>
       <c r="N13">
-        <v>0.1186418359267575</v>
+        <v>-0.2826302891465195</v>
       </c>
       <c r="O13">
-        <v>0.2707964020508177</v>
+        <v>0.300899422204743</v>
       </c>
       <c r="P13">
-        <v>0.2104949814063378</v>
+        <v>0.2405671890440168</v>
       </c>
       <c r="Q13">
-        <v>0.1502573900854442</v>
+        <v>0.1802984348167253</v>
       </c>
       <c r="R13">
-        <v>0.09004492290897656</v>
+        <v>0.09003711467851681</v>
       </c>
       <c r="S13">
-        <v>-0.5486443937315429</v>
+        <v>-0.3608258714407246</v>
       </c>
       <c r="T13">
-        <v>0.4586443937315181</v>
+        <v>0.270825871440723</v>
       </c>
       <c r="U13">
-        <v>0.3664670352146994</v>
+        <v>0.180119636915304</v>
       </c>
       <c r="V13">
-        <v>0.2761011971649497</v>
+        <v>0.09003614716313484</v>
       </c>
       <c r="W13">
-        <v>2.096027566187356</v>
+        <v>0.9036416809012942</v>
       </c>
       <c r="X13">
-        <v>1.992823116544685</v>
+        <v>0.481331605697804</v>
       </c>
       <c r="Y13">
-        <v>1.548912242466509</v>
+        <v>0.06002045357796696</v>
       </c>
       <c r="Z13">
-        <v>1.725632349268686</v>
+        <v>0.8689302632486887</v>
       </c>
       <c r="AA13">
-        <v>1.660485971902659</v>
+        <v>0.8079635830514902</v>
       </c>
       <c r="AB13">
-        <v>1.593739430600804</v>
+        <v>0.7467908637980315</v>
       </c>
       <c r="AC13">
-        <v>1.510257399019914</v>
+        <v>0.6230467849620682</v>
       </c>
       <c r="AD13">
-        <v>1.373612565980039</v>
+        <v>0.421047741755273</v>
       </c>
       <c r="AE13">
-        <v>0.4217201484854426</v>
+        <v>0.270467903670495</v>
       </c>
       <c r="AF13">
-        <v>0.2702139398614488</v>
+        <v>0.06000725129538983</v>
       </c>
       <c r="AG13">
-        <v>0.06001242907819886</v>
+        <v>1.29671481428076E-10</v>
       </c>
     </row>
     <row r="14" spans="1:33">
@@ -1687,100 +1687,100 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.56246781164964</v>
+        <v>2.971679706496616</v>
       </c>
       <c r="C14">
-        <v>5.856203536389116</v>
+        <v>2.512389236603238</v>
       </c>
       <c r="D14">
-        <v>3.379413656869154</v>
+        <v>1.437850477189059</v>
       </c>
       <c r="E14">
-        <v>3.05927945952847</v>
+        <v>1.342072889248055</v>
       </c>
       <c r="F14">
-        <v>2.945891492861901</v>
+        <v>1.401756645423179</v>
       </c>
       <c r="G14">
-        <v>1.121409917890418</v>
+        <v>0.3325535225506926</v>
       </c>
       <c r="H14">
-        <v>0.9162779449103582</v>
+        <v>0.1341757325065306</v>
       </c>
       <c r="I14">
-        <v>0.6698658654462382</v>
+        <v>0.07232032218985876</v>
       </c>
       <c r="J14">
-        <v>0.3975587424921934</v>
+        <v>0.01152410774833896</v>
       </c>
       <c r="K14">
-        <v>0.3100270008362688</v>
+        <v>-0.03440070131745481</v>
       </c>
       <c r="L14">
-        <v>0.2597751080349501</v>
+        <v>-0.09406135281274973</v>
       </c>
       <c r="M14">
-        <v>0.2595486412868301</v>
+        <v>-0.08397453246340537</v>
       </c>
       <c r="N14">
-        <v>0.1985525707352605</v>
+        <v>-0.2028391479810836</v>
       </c>
       <c r="O14">
-        <v>0.2707980329074571</v>
+        <v>0.2978832120660087</v>
       </c>
       <c r="P14">
-        <v>0.210495995668092</v>
+        <v>0.2381569642942374</v>
       </c>
       <c r="Q14">
-        <v>0.1502579176591436</v>
+        <v>0.1784930538964991</v>
       </c>
       <c r="R14">
-        <v>0.09004501491910624</v>
+        <v>0.08913644537157109</v>
       </c>
       <c r="S14">
-        <v>-0.5467621322909131</v>
+        <v>-0.3572093904588935</v>
       </c>
       <c r="T14">
-        <v>0.4567621322909254</v>
+        <v>0.268109390458903</v>
       </c>
       <c r="U14">
-        <v>0.3646013715827589</v>
+        <v>0.1783172488727307</v>
       </c>
       <c r="V14">
-        <v>0.2742390758746847</v>
+        <v>0.08913542553380817</v>
       </c>
       <c r="W14">
-        <v>2.084273689363132</v>
+        <v>0.8945690489938838</v>
       </c>
       <c r="X14">
-        <v>1.981207700830361</v>
+        <v>0.4765050257443312</v>
       </c>
       <c r="Y14">
-        <v>1.537560529039074</v>
+        <v>0.05942004519490331</v>
       </c>
       <c r="Z14">
-        <v>1.71771668118369</v>
+        <v>0.8601466139146402</v>
       </c>
       <c r="AA14">
-        <v>1.652608299626834</v>
+        <v>0.7997997822308651</v>
       </c>
       <c r="AB14">
-        <v>1.585913032694968</v>
+        <v>0.7392511589965191</v>
       </c>
       <c r="AC14">
-        <v>1.502614872275342</v>
+        <v>0.6167840640994128</v>
       </c>
       <c r="AD14">
-        <v>1.366104089129729</v>
+        <v>0.4168261575495756</v>
       </c>
       <c r="AE14">
-        <v>0.4217189858352908</v>
+        <v>0.2677582611925382</v>
       </c>
       <c r="AF14">
-        <v>0.2702137951670071</v>
+        <v>0.05940710186992032</v>
       </c>
       <c r="AG14">
-        <v>0.06001242065733852</v>
+        <v>1.298650802204011E-10</v>
       </c>
     </row>
     <row r="15" spans="1:33">
@@ -1788,100 +1788,100 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.872579713728555</v>
+        <v>3.191693878207843</v>
       </c>
       <c r="C15">
-        <v>6.157673530711983</v>
+        <v>2.725451861117504</v>
       </c>
       <c r="D15">
-        <v>3.633594670914933</v>
+        <v>1.628309418672426</v>
       </c>
       <c r="E15">
-        <v>3.288749690971042</v>
+        <v>1.523787731376832</v>
       </c>
       <c r="F15">
-        <v>3.151440245275395</v>
+        <v>1.576319904320636</v>
       </c>
       <c r="G15">
-        <v>1.310419182928935</v>
+        <v>0.4922150951880845</v>
       </c>
       <c r="H15">
-        <v>1.103492232613475</v>
+        <v>0.2913296145228628</v>
       </c>
       <c r="I15">
-        <v>0.8408690185155636</v>
+        <v>0.224922751952192</v>
       </c>
       <c r="J15">
-        <v>0.5570237845826823</v>
+        <v>0.1612699146651088</v>
       </c>
       <c r="K15">
-        <v>0.4601756488611397</v>
+        <v>0.1127361015578086</v>
       </c>
       <c r="L15">
-        <v>0.4081704301797086</v>
+        <v>0.05208391197425383</v>
       </c>
       <c r="M15">
-        <v>0.4045949044045119</v>
+        <v>0.06086662203467248</v>
       </c>
       <c r="N15">
-        <v>0.3427148072745727</v>
+        <v>-0.0591673423841698</v>
       </c>
       <c r="O15">
-        <v>0.2708009946795101</v>
+        <v>0.3009044980122981</v>
       </c>
       <c r="P15">
-        <v>0.2104978376602989</v>
+        <v>0.2405703916310782</v>
       </c>
       <c r="Q15">
-        <v>0.150258875784764</v>
+        <v>0.1803001206307792</v>
       </c>
       <c r="R15">
-        <v>0.09004518201893516</v>
+        <v>0.09003732441356167</v>
       </c>
       <c r="S15">
-        <v>-0.5486447925576143</v>
+        <v>-0.3608259096456224</v>
       </c>
       <c r="T15">
-        <v>0.4586447925575631</v>
+        <v>0.2708259096456329</v>
       </c>
       <c r="U15">
-        <v>0.3664671340455021</v>
+        <v>0.1801196424525223</v>
       </c>
       <c r="V15">
-        <v>0.2761012455720284</v>
+        <v>0.09003614883660147</v>
       </c>
       <c r="W15">
-        <v>2.096055790408969</v>
+        <v>0.903642315053985</v>
       </c>
       <c r="X15">
-        <v>1.992844124418214</v>
+        <v>0.4813318379620518</v>
       </c>
       <c r="Y15">
-        <v>1.548920161707839</v>
+        <v>0.06002045714748776</v>
       </c>
       <c r="Z15">
-        <v>1.725584990651884</v>
+        <v>0.8689220116803731</v>
       </c>
       <c r="AA15">
-        <v>1.660442485879943</v>
+        <v>0.807956221949838</v>
       </c>
       <c r="AB15">
-        <v>1.593701033076112</v>
+        <v>0.7467845844568153</v>
       </c>
       <c r="AC15">
-        <v>1.510236751941305</v>
+        <v>0.6230439640562121</v>
       </c>
       <c r="AD15">
-        <v>1.373604515499414</v>
+        <v>0.4210467703222905</v>
       </c>
       <c r="AE15">
-        <v>0.4217188347611527</v>
+        <v>0.2704674695501303</v>
       </c>
       <c r="AF15">
-        <v>0.2702137763655708</v>
+        <v>0.06000724456836309</v>
       </c>
       <c r="AG15">
-        <v>0.06001241956310944</v>
+        <v>1.298620830756324E-10</v>
       </c>
     </row>
     <row r="16" spans="1:33">
@@ -1889,100 +1889,100 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>7.220445924324395</v>
+        <v>3.416839889897346</v>
       </c>
       <c r="C16">
-        <v>6.497430812785327</v>
+        <v>2.94781069490251</v>
       </c>
       <c r="D16">
-        <v>3.930589329226879</v>
+        <v>1.836384636807624</v>
       </c>
       <c r="E16">
-        <v>3.555636114437369</v>
+        <v>1.722236730330641</v>
       </c>
       <c r="F16">
-        <v>3.386907065910414</v>
+        <v>1.76480334028422</v>
       </c>
       <c r="G16">
-        <v>1.534509519107624</v>
+        <v>0.6750593890680102</v>
       </c>
       <c r="H16">
-        <v>1.325151418831983</v>
+        <v>0.473341148583362</v>
       </c>
       <c r="I16">
-        <v>1.040550367049557</v>
+        <v>0.4000999039445304</v>
       </c>
       <c r="J16">
-        <v>0.7435685662693231</v>
+        <v>0.3324722731100054</v>
       </c>
       <c r="K16">
-        <v>0.6339745870078772</v>
+        <v>0.2800610943010486</v>
       </c>
       <c r="L16">
-        <v>0.5795687638863189</v>
+        <v>0.2186947784784159</v>
       </c>
       <c r="M16">
-        <v>0.571409243763512</v>
+        <v>0.2261649471633804</v>
       </c>
       <c r="N16">
-        <v>0.5080348981156009</v>
+        <v>0.1056964188792069</v>
       </c>
       <c r="O16">
-        <v>0.2708044226289779</v>
+        <v>0.3009082856606617</v>
       </c>
       <c r="P16">
-        <v>0.2104999695911541</v>
+        <v>0.2405727814647406</v>
       </c>
       <c r="Q16">
-        <v>0.1502599847298755</v>
+        <v>0.180301378623591</v>
       </c>
       <c r="R16">
-        <v>0.09004537542263037</v>
+        <v>0.09003748092319214</v>
       </c>
       <c r="S16">
-        <v>-0.5486450188789951</v>
+        <v>-0.3608259305445303</v>
       </c>
       <c r="T16">
-        <v>0.4586450188790123</v>
+        <v>0.2708259305445392</v>
       </c>
       <c r="U16">
-        <v>0.3664671901288586</v>
+        <v>0.1801196454814618</v>
       </c>
       <c r="V16">
-        <v>0.2761012730415224</v>
+        <v>0.09003614975205343</v>
       </c>
       <c r="W16">
-        <v>2.096071830960405</v>
+        <v>0.903642663091959</v>
       </c>
       <c r="X16">
-        <v>1.992856063741514</v>
+        <v>0.4813319654340194</v>
       </c>
       <c r="Y16">
-        <v>1.548924662428884</v>
+        <v>0.06002045910647343</v>
       </c>
       <c r="Z16">
-        <v>1.725554163254072</v>
+        <v>0.8689162823963735</v>
       </c>
       <c r="AA16">
-        <v>1.66041417930645</v>
+        <v>0.8079511109430321</v>
       </c>
       <c r="AB16">
-        <v>1.593676038796872</v>
+        <v>0.7467802245473213</v>
       </c>
       <c r="AC16">
-        <v>1.510223312059772</v>
+        <v>0.6230420054318836</v>
       </c>
       <c r="AD16">
-        <v>1.373599275178784</v>
+        <v>0.4210460958338463</v>
       </c>
       <c r="AE16">
-        <v>0.4217179796212581</v>
+        <v>0.2704671681306162</v>
       </c>
       <c r="AF16">
-        <v>0.2702136699416293</v>
+        <v>0.06000723989747939</v>
       </c>
       <c r="AG16">
-        <v>0.06001241336945484</v>
+        <v>1.299615309574738E-10</v>
       </c>
     </row>
     <row r="17" spans="1:33">
@@ -1990,100 +1990,100 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>7.461877945757806</v>
+        <v>3.520507190906528</v>
       </c>
       <c r="C17">
-        <v>6.738224442602359</v>
+        <v>3.063391061915762</v>
       </c>
       <c r="D17">
-        <v>4.173166300524071</v>
+        <v>1.974023849071039</v>
       </c>
       <c r="E17">
-        <v>3.773774610779273</v>
+        <v>1.855401041172051</v>
       </c>
       <c r="F17">
-        <v>3.564999314618966</v>
+        <v>1.878700467794309</v>
       </c>
       <c r="G17">
-        <v>1.726289706991155</v>
+        <v>0.8167486242727379</v>
       </c>
       <c r="H17">
-        <v>1.514617655894549</v>
+        <v>0.6202027113468209</v>
       </c>
       <c r="I17">
-        <v>1.209089131971004</v>
+        <v>0.5417148234915088</v>
       </c>
       <c r="J17">
-        <v>0.9051662444103954</v>
+        <v>0.471744020859283</v>
       </c>
       <c r="K17">
-        <v>0.7833044022037067</v>
+        <v>0.4165975076604306</v>
       </c>
       <c r="L17">
-        <v>0.7265874089128792</v>
+        <v>0.3562727280092386</v>
       </c>
       <c r="M17">
-        <v>0.7140168381302011</v>
+        <v>0.3641341041417801</v>
       </c>
       <c r="N17">
-        <v>0.6489600081005978</v>
+        <v>0.2465196284933521</v>
       </c>
       <c r="O17">
-        <v>0.2708073716944053</v>
+        <v>0.2918574402462509</v>
       </c>
       <c r="P17">
-        <v>0.2105018037026848</v>
+        <v>0.2333407096619873</v>
       </c>
       <c r="Q17">
-        <v>0.1502609387660916</v>
+        <v>0.1748845002040225</v>
       </c>
       <c r="R17">
-        <v>0.09004554181022401</v>
+        <v>0.08733538147770827</v>
       </c>
       <c r="S17">
-        <v>-0.5429981265797755</v>
+        <v>-0.349976940255784</v>
       </c>
       <c r="T17">
-        <v>0.4529981265797657</v>
+        <v>0.2626769402558778</v>
       </c>
       <c r="U17">
-        <v>0.3608702329430814</v>
+        <v>0.1747125469918421</v>
       </c>
       <c r="V17">
-        <v>0.2705149468894635</v>
+        <v>0.08733400470756983</v>
       </c>
       <c r="W17">
-        <v>2.060789201139193</v>
+        <v>0.8764261699825726</v>
       </c>
       <c r="X17">
-        <v>1.957994804510496</v>
+        <v>0.4668527405637122</v>
       </c>
       <c r="Y17">
-        <v>1.51486496744484</v>
+        <v>0.05821924187928246</v>
       </c>
       <c r="Z17">
-        <v>1.701845839127609</v>
+        <v>0.8425763107853437</v>
       </c>
       <c r="AA17">
-        <v>1.636816763534838</v>
+        <v>0.7834695024818497</v>
       </c>
       <c r="AB17">
-        <v>1.570228350106983</v>
+        <v>0.7241694665872932</v>
       </c>
       <c r="AC17">
-        <v>1.487312756074524</v>
+        <v>0.6042575996858111</v>
       </c>
       <c r="AD17">
-        <v>1.351080446438713</v>
+        <v>0.4083826380337598</v>
       </c>
       <c r="AE17">
-        <v>0.4217153047563894</v>
+        <v>0.2623388195668808</v>
       </c>
       <c r="AF17">
-        <v>0.2702133370493172</v>
+        <v>0.05820680059259729</v>
       </c>
       <c r="AG17">
-        <v>0.06001239399594734</v>
+        <v>1.3018660171974E-10</v>
       </c>
     </row>
     <row r="18" spans="1:33">
@@ -2091,100 +2091,100 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>7.47725016363961</v>
+        <v>3.521577581407428</v>
       </c>
       <c r="C18">
-        <v>6.754957121334165</v>
+        <v>3.068869220984286</v>
       </c>
       <c r="D18">
-        <v>4.198785373341132</v>
+        <v>1.98909841705017</v>
       </c>
       <c r="E18">
-        <v>3.797100283514536</v>
+        <v>1.87050396779081</v>
       </c>
       <c r="F18">
-        <v>3.549382281373111</v>
+        <v>1.857253802131372</v>
       </c>
       <c r="G18">
-        <v>1.719283022297668</v>
+        <v>0.8066581126075519</v>
       </c>
       <c r="H18">
-        <v>1.507707749932544</v>
+        <v>0.6121740169248537</v>
       </c>
       <c r="I18">
-        <v>1.203058086252862</v>
+        <v>0.5347834038306405</v>
       </c>
       <c r="J18">
-        <v>0.9015205152982845</v>
+        <v>0.4657018791756712</v>
       </c>
       <c r="K18">
-        <v>0.7801548688340942</v>
+        <v>0.4112886372915093</v>
       </c>
       <c r="L18">
-        <v>0.7235317855062431</v>
+        <v>0.3516163168425957</v>
       </c>
       <c r="M18">
-        <v>0.7111410700664949</v>
+        <v>0.3601751435635536</v>
       </c>
       <c r="N18">
-        <v>0.646121857217736</v>
+        <v>0.2437869313631233</v>
       </c>
       <c r="O18">
-        <v>0.2708073120547722</v>
+        <v>0.2888397161652097</v>
       </c>
       <c r="P18">
-        <v>0.2105017666109538</v>
+        <v>0.2309295298005056</v>
       </c>
       <c r="Q18">
-        <v>0.1502609194723448</v>
+        <v>0.17307861656854</v>
       </c>
       <c r="R18">
-        <v>0.09004553844524998</v>
+        <v>0.08643464963205898</v>
       </c>
       <c r="S18">
-        <v>-0.5411160265166337</v>
+        <v>-0.3463609424154022</v>
       </c>
       <c r="T18">
-        <v>0.4511160265166297</v>
+        <v>0.25996094241548</v>
       </c>
       <c r="U18">
-        <v>0.3590046705472931</v>
+        <v>0.1729102290051212</v>
       </c>
       <c r="V18">
-        <v>0.2686528966307711</v>
+        <v>0.08643330425682023</v>
       </c>
       <c r="W18">
-        <v>2.049033634842815</v>
+        <v>0.8673554455922114</v>
       </c>
       <c r="X18">
-        <v>1.946378776058576</v>
+        <v>0.4620268605187103</v>
       </c>
       <c r="Y18">
-        <v>1.503514172529473</v>
+        <v>0.05761884426007828</v>
       </c>
       <c r="Z18">
-        <v>1.693956333938309</v>
+        <v>0.8338017531753634</v>
       </c>
       <c r="AA18">
-        <v>1.628963193380422</v>
+        <v>0.7753138141204484</v>
       </c>
       <c r="AB18">
-        <v>1.562423300343759</v>
+        <v>0.7166366835922828</v>
       </c>
       <c r="AC18">
-        <v>1.479681793109494</v>
+        <v>0.5979979908320986</v>
       </c>
       <c r="AD18">
-        <v>1.343576454010317</v>
+        <v>0.4041621264544132</v>
       </c>
       <c r="AE18">
-        <v>0.4217146413265592</v>
+        <v>0.2596296566367818</v>
       </c>
       <c r="AF18">
-        <v>0.2702132544843504</v>
+        <v>0.05760665859971798</v>
       </c>
       <c r="AG18">
-        <v>0.06001238919082157</v>
+        <v>1.302680295109534E-10</v>
       </c>
     </row>
     <row r="19" spans="1:33">
@@ -2192,100 +2192,100 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>7.784169313916436</v>
+        <v>3.722630467535055</v>
       </c>
       <c r="C19">
-        <v>7.054109995926376</v>
+        <v>3.267135902145204</v>
       </c>
       <c r="D19">
-        <v>4.456936152920722</v>
+        <v>2.172997778253755</v>
       </c>
       <c r="E19">
-        <v>4.02618978119664</v>
+        <v>2.044567230874056</v>
       </c>
       <c r="F19">
-        <v>3.711199467795225</v>
+        <v>1.984173677830215</v>
       </c>
       <c r="G19">
-        <v>1.871757059395881</v>
+        <v>0.9287134060187977</v>
       </c>
       <c r="H19">
-        <v>1.658170735310222</v>
+        <v>0.7334095680078697</v>
       </c>
       <c r="I19">
-        <v>1.335315504414142</v>
+        <v>0.6490191735696937</v>
       </c>
       <c r="J19">
-        <v>1.02288121352823</v>
+        <v>0.5758117467830614</v>
       </c>
       <c r="K19">
-        <v>0.8908376312276156</v>
+        <v>0.5173166333187592</v>
       </c>
       <c r="L19">
-        <v>0.8322010542751059</v>
+        <v>0.456884147981889</v>
       </c>
       <c r="M19">
-        <v>0.8159662333471351</v>
+        <v>0.4640241095178748</v>
       </c>
       <c r="N19">
-        <v>0.7494777219767921</v>
+        <v>0.346851947931987</v>
       </c>
       <c r="O19">
-        <v>0.2708094905307195</v>
+        <v>0.2888419320450377</v>
       </c>
       <c r="P19">
-        <v>0.210503121476191</v>
+        <v>0.2309309278707936</v>
       </c>
       <c r="Q19">
-        <v>0.1502616242254559</v>
+        <v>0.1730793524829797</v>
       </c>
       <c r="R19">
-        <v>0.09004566135715296</v>
+        <v>0.0864347411865744</v>
       </c>
       <c r="S19">
-        <v>-0.5411162365967562</v>
+        <v>-0.3463609618862937</v>
       </c>
       <c r="T19">
-        <v>0.4511162365967556</v>
+        <v>0.2599609618862861</v>
       </c>
       <c r="U19">
-        <v>0.3590047220044543</v>
+        <v>0.1729102318270355</v>
       </c>
       <c r="V19">
-        <v>0.2686529216501317</v>
+        <v>0.08643330510970458</v>
       </c>
       <c r="W19">
-        <v>2.049048324180732</v>
+        <v>0.8673557708084647</v>
       </c>
       <c r="X19">
-        <v>1.946389688990978</v>
+        <v>0.4620269796172131</v>
       </c>
       <c r="Y19">
-        <v>1.503518251285776</v>
+        <v>0.05761884609062563</v>
       </c>
       <c r="Z19">
-        <v>1.69394155116916</v>
+        <v>0.8337987543164952</v>
       </c>
       <c r="AA19">
-        <v>1.628949621258833</v>
+        <v>0.7753111389685317</v>
       </c>
       <c r="AB19">
-        <v>1.562411317567547</v>
+        <v>0.7166344016408751</v>
       </c>
       <c r="AC19">
-        <v>1.479675349296202</v>
+        <v>0.597996965811768</v>
       </c>
       <c r="AD19">
-        <v>1.343573937327711</v>
+        <v>0.4041617735129063</v>
       </c>
       <c r="AE19">
-        <v>0.4217142194382923</v>
+        <v>0.2596294989214988</v>
       </c>
       <c r="AF19">
-        <v>0.2702132019795435</v>
+        <v>0.05760665615593934</v>
       </c>
       <c r="AG19">
-        <v>0.06001238613523514</v>
+        <v>1.302750322982466E-10</v>
       </c>
     </row>
     <row r="20" spans="1:33">
@@ -2293,100 +2293,100 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>7.698608276500408</v>
+        <v>3.622119966544005</v>
       </c>
       <c r="C20">
-        <v>6.975953784987989</v>
+        <v>3.181293096795554</v>
       </c>
       <c r="D20">
-        <v>4.422956266076158</v>
+        <v>2.123386461991174</v>
       </c>
       <c r="E20">
-        <v>3.997726669100101</v>
+        <v>2.000123224112111</v>
       </c>
       <c r="F20">
-        <v>3.659250852495253</v>
+        <v>1.915754110560262</v>
       </c>
       <c r="G20">
-        <v>1.846031123758119</v>
+        <v>0.8946220996351013</v>
       </c>
       <c r="H20">
-        <v>1.632817897063284</v>
+        <v>0.7055524980732206</v>
       </c>
       <c r="I20">
-        <v>1.313349638933025</v>
+        <v>0.6248744270194093</v>
       </c>
       <c r="J20">
-        <v>1.008521142019942</v>
+        <v>0.5545834128324667</v>
       </c>
       <c r="K20">
-        <v>0.8784038515832159</v>
+        <v>0.498534801420191</v>
       </c>
       <c r="L20">
-        <v>0.8201316463685735</v>
+        <v>0.4401057501429642</v>
       </c>
       <c r="M20">
-        <v>0.804594141298336</v>
+        <v>0.4494243087375308</v>
       </c>
       <c r="N20">
-        <v>0.7382747850600859</v>
+        <v>0.3359742938743274</v>
       </c>
       <c r="O20">
-        <v>0.2708092537437126</v>
+        <v>0.2797896944948478</v>
       </c>
       <c r="P20">
-        <v>0.2105029742103223</v>
+        <v>0.2236979783220041</v>
       </c>
       <c r="Q20">
-        <v>0.150261547622799</v>
+        <v>0.1676620122882694</v>
       </c>
       <c r="R20">
-        <v>0.09004564799736559</v>
+        <v>0.08373258431882832</v>
       </c>
       <c r="S20">
-        <v>-0.535470567057966</v>
+        <v>-0.3355139637657295</v>
       </c>
       <c r="T20">
-        <v>0.4454705670579585</v>
+        <v>0.2518139637658547</v>
       </c>
       <c r="U20">
-        <v>0.3534083143109249</v>
+        <v>0.167503422193003</v>
       </c>
       <c r="V20">
-        <v>0.26306695088139</v>
+        <v>0.08373124738745318</v>
       </c>
       <c r="W20">
-        <v>2.0138002438299</v>
+        <v>0.8401478998639974</v>
       </c>
       <c r="X20">
-        <v>1.911556774699806</v>
+        <v>0.447550917537369</v>
       </c>
       <c r="Y20">
-        <v>1.469473923877141</v>
+        <v>0.05581767749841045</v>
       </c>
       <c r="Z20">
-        <v>1.670288749354126</v>
+        <v>0.807486690280331</v>
       </c>
       <c r="AA20">
-        <v>1.605403492435995</v>
+        <v>0.7508544331687874</v>
       </c>
       <c r="AB20">
-        <v>1.539009173281621</v>
+        <v>0.694044892233065</v>
       </c>
       <c r="AC20">
-        <v>1.45678962262324</v>
+        <v>0.5792221146318932</v>
       </c>
       <c r="AD20">
-        <v>1.321064712628108</v>
+        <v>0.3915016094215599</v>
       </c>
       <c r="AE20">
-        <v>0.421712238037059</v>
+        <v>0.2515026230122135</v>
       </c>
       <c r="AF20">
-        <v>0.270212955390888</v>
+        <v>0.0558062396769179</v>
       </c>
       <c r="AG20">
-        <v>0.06001237178431874</v>
+        <v>1.303837116940244E-10</v>
       </c>
     </row>
     <row r="21" spans="1:33">
@@ -2394,100 +2394,100 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7.666867939192798</v>
+        <v>3.586116760160394</v>
       </c>
       <c r="C21">
-        <v>6.946760349810241</v>
+        <v>3.150207569966159</v>
       </c>
       <c r="D21">
-        <v>4.408897483241332</v>
+        <v>2.10452786211931</v>
       </c>
       <c r="E21">
-        <v>3.985806396892697</v>
+        <v>1.983093409664716</v>
       </c>
       <c r="F21">
-        <v>3.641988187148856</v>
+        <v>1.89301628019912</v>
       </c>
       <c r="G21">
-        <v>1.837493006951182</v>
+        <v>0.8833058386099621</v>
       </c>
       <c r="H21">
-        <v>1.624402596239484</v>
+        <v>0.6963121613067225</v>
       </c>
       <c r="I21">
-        <v>1.306049233360008</v>
+        <v>0.6168537655176047</v>
       </c>
       <c r="J21">
-        <v>1.003747523623903</v>
+        <v>0.547524482848661</v>
       </c>
       <c r="K21">
-        <v>0.8742643744561338</v>
+        <v>0.4922811120096482</v>
       </c>
       <c r="L21">
-        <v>0.8161121207987132</v>
+        <v>0.4345179619447843</v>
       </c>
       <c r="M21">
-        <v>0.8008041805648269</v>
+        <v>0.4445591495266584</v>
       </c>
       <c r="N21">
-        <v>0.7345406708781307</v>
+        <v>0.3323489707791006</v>
       </c>
       <c r="O21">
-        <v>0.2708091748545106</v>
+        <v>0.2767726600871578</v>
       </c>
       <c r="P21">
-        <v>0.2105029251465615</v>
+        <v>0.2212872338117399</v>
       </c>
       <c r="Q21">
-        <v>0.1502615221015043</v>
+        <v>0.1658563579023971</v>
       </c>
       <c r="R21">
-        <v>0.09004564354630021</v>
+        <v>0.08283188100346961</v>
       </c>
       <c r="S21">
-        <v>-0.5335889173143851</v>
+        <v>-0.3318986330353971</v>
       </c>
       <c r="T21">
-        <v>0.443588917314382</v>
+        <v>0.249098633035523</v>
       </c>
       <c r="U21">
-        <v>0.3515429457281756</v>
+        <v>0.1657012009312251</v>
       </c>
       <c r="V21">
-        <v>0.2612050243162113</v>
+        <v>0.08283057617647836</v>
       </c>
       <c r="W21">
-        <v>2.002059235757748</v>
+        <v>0.8310801035021037</v>
       </c>
       <c r="X21">
-        <v>1.899952459795661</v>
+        <v>0.4427261114163441</v>
       </c>
       <c r="Y21">
-        <v>1.458129107280935</v>
+        <v>0.05521729639248348</v>
       </c>
       <c r="Z21">
-        <v>1.662409563609485</v>
+        <v>0.7987197858129733</v>
       </c>
       <c r="AA21">
-        <v>1.597559499229008</v>
+        <v>0.7427055741447984</v>
       </c>
       <c r="AB21">
-        <v>1.531212665866975</v>
+        <v>0.6865179366621906</v>
       </c>
       <c r="AC21">
-        <v>1.449163365849089</v>
+        <v>0.5729651264376232</v>
       </c>
       <c r="AD21">
-        <v>1.313562529571168</v>
+        <v>0.3872820013724511</v>
       </c>
       <c r="AE21">
-        <v>0.4217115793980103</v>
+        <v>0.2487938640868721</v>
       </c>
       <c r="AF21">
-        <v>0.2702128734222951</v>
+        <v>0.05520610394616782</v>
       </c>
       <c r="AG21">
-        <v>0.06001236701395798</v>
+        <v>1.303913319818887E-10</v>
       </c>
     </row>
     <row r="22" spans="1:33">
@@ -2495,100 +2495,100 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.669497572813498</v>
+        <v>3.588196496645196</v>
       </c>
       <c r="C22">
-        <v>6.949322928382511</v>
+        <v>3.152258525336373</v>
       </c>
       <c r="D22">
-        <v>4.411105910513884</v>
+        <v>2.106430187007114</v>
       </c>
       <c r="E22">
-        <v>3.987763250218979</v>
+        <v>1.984893621739208</v>
       </c>
       <c r="F22">
-        <v>3.641988187148971</v>
+        <v>1.893016280199857</v>
       </c>
       <c r="G22">
-        <v>1.837493006951143</v>
+        <v>0.8833058386104298</v>
       </c>
       <c r="H22">
-        <v>1.624402596239504</v>
+        <v>0.6963121613072376</v>
       </c>
       <c r="I22">
-        <v>1.306049233360007</v>
+        <v>0.6168537655180755</v>
       </c>
       <c r="J22">
-        <v>1.003747523623889</v>
+        <v>0.5475244828491569</v>
       </c>
       <c r="K22">
-        <v>0.8742643744563212</v>
+        <v>0.4922811120096654</v>
       </c>
       <c r="L22">
-        <v>0.8161121207987456</v>
+        <v>0.4345179619449742</v>
       </c>
       <c r="M22">
-        <v>0.8008041805648265</v>
+        <v>0.444559149526829</v>
       </c>
       <c r="N22">
-        <v>0.7345406708780861</v>
+        <v>0.3323489707793131</v>
       </c>
       <c r="O22">
-        <v>0.2708091748545408</v>
+        <v>0.2767726600871928</v>
       </c>
       <c r="P22">
-        <v>0.2105029251465438</v>
+        <v>0.2212872338118045</v>
       </c>
       <c r="Q22">
-        <v>0.1502615221015138</v>
+        <v>0.1658563579024353</v>
       </c>
       <c r="R22">
-        <v>0.09004564354628639</v>
+        <v>0.08283188100347223</v>
       </c>
       <c r="S22">
-        <v>-0.5335889190666999</v>
+        <v>-0.3318986332205045</v>
       </c>
       <c r="T22">
-        <v>0.4435889190666806</v>
+        <v>0.2490986332205989</v>
       </c>
       <c r="U22">
-        <v>0.3515429461522701</v>
+        <v>0.1657012009580999</v>
       </c>
       <c r="V22">
-        <v>0.2612050245207864</v>
+        <v>0.08283057618460785</v>
       </c>
       <c r="W22">
-        <v>2.00205935638505</v>
+        <v>0.8310801065943231</v>
       </c>
       <c r="X22">
-        <v>1.89995254923345</v>
+        <v>0.4427261125486094</v>
       </c>
       <c r="Y22">
-        <v>1.458129140406951</v>
+        <v>0.05521729640991806</v>
       </c>
       <c r="Z22">
-        <v>1.662409563609669</v>
+        <v>0.7987197858124783</v>
       </c>
       <c r="AA22">
-        <v>1.59755949922898</v>
+        <v>0.7427055741450747</v>
       </c>
       <c r="AB22">
-        <v>1.53121266586702</v>
+        <v>0.6865179366622306</v>
       </c>
       <c r="AC22">
-        <v>1.449163365849136</v>
+        <v>0.5729651264377005</v>
       </c>
       <c r="AD22">
-        <v>1.313562529571235</v>
+        <v>0.3872820013724621</v>
       </c>
       <c r="AE22">
-        <v>0.4217115793980172</v>
+        <v>0.2487938640867653</v>
       </c>
       <c r="AF22">
-        <v>0.2702128734223409</v>
+        <v>0.0552061039461282</v>
       </c>
       <c r="AG22">
-        <v>0.06001236701392432</v>
+        <v>1.304817682598754E-10</v>
       </c>
     </row>
     <row r="23" spans="1:33">
@@ -2596,100 +2596,100 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7.718721813804905</v>
+        <v>3.638029752614557</v>
       </c>
       <c r="C23">
-        <v>6.995552221427508</v>
+        <v>3.19698036153972</v>
       </c>
       <c r="D23">
-        <v>4.439834300425975</v>
+        <v>2.13792460234435</v>
       </c>
       <c r="E23">
-        <v>4.01267269455348</v>
+        <v>2.013871837339574</v>
       </c>
       <c r="F23">
-        <v>3.659250852495693</v>
+        <v>1.915754112061589</v>
       </c>
       <c r="G23">
-        <v>1.846031123758241</v>
+        <v>0.8946221009899381</v>
       </c>
       <c r="H23">
-        <v>1.632817897063449</v>
+        <v>0.7055524991896794</v>
       </c>
       <c r="I23">
-        <v>1.313349638933211</v>
+        <v>0.624874427838889</v>
       </c>
       <c r="J23">
-        <v>1.008521142020052</v>
+        <v>0.5545834132191563</v>
       </c>
       <c r="K23">
-        <v>0.8784038515831586</v>
+        <v>0.4985348015598293</v>
       </c>
       <c r="L23">
-        <v>0.8201316463685149</v>
+        <v>0.4401057502022209</v>
       </c>
       <c r="M23">
-        <v>0.8045941412984058</v>
+        <v>0.4494243087375689</v>
       </c>
       <c r="N23">
-        <v>0.7382747850600941</v>
+        <v>0.3359742938744159</v>
       </c>
       <c r="O23">
-        <v>0.2708092537436027</v>
+        <v>0.2797896944948725</v>
       </c>
       <c r="P23">
-        <v>0.2105029742103413</v>
+        <v>0.2236979783220225</v>
       </c>
       <c r="Q23">
-        <v>0.1502615476227879</v>
+        <v>0.1676620122882984</v>
       </c>
       <c r="R23">
-        <v>0.09004564799731667</v>
+        <v>0.0837325843187903</v>
       </c>
       <c r="S23">
-        <v>-0.5354705806389245</v>
+        <v>-0.3355139652284425</v>
       </c>
       <c r="T23">
-        <v>0.4454705806389215</v>
+        <v>0.2518139652284076</v>
       </c>
       <c r="U23">
-        <v>0.353408317607551</v>
+        <v>0.1675034224050512</v>
       </c>
       <c r="V23">
-        <v>0.2630669524749677</v>
+        <v>0.08373124745152599</v>
       </c>
       <c r="W23">
-        <v>2.013801182560343</v>
+        <v>0.8401479243088557</v>
       </c>
       <c r="X23">
-        <v>1.911557471064508</v>
+        <v>0.4475509264897969</v>
       </c>
       <c r="Y23">
-        <v>1.469474182395111</v>
+        <v>0.05581767763632368</v>
       </c>
       <c r="Z23">
-        <v>1.670288749354258</v>
+        <v>0.8074866902819541</v>
       </c>
       <c r="AA23">
-        <v>1.60540349243586</v>
+        <v>0.7508544331699437</v>
       </c>
       <c r="AB23">
-        <v>1.539009173281494</v>
+        <v>0.694044892234381</v>
       </c>
       <c r="AC23">
-        <v>1.456789622623136</v>
+        <v>0.5792221146330824</v>
       </c>
       <c r="AD23">
-        <v>1.321064712628034</v>
+        <v>0.3915016094224873</v>
       </c>
       <c r="AE23">
-        <v>0.4217122380370698</v>
+        <v>0.2515026230128679</v>
       </c>
       <c r="AF23">
-        <v>0.2702129553909081</v>
+        <v>0.05580623967703693</v>
       </c>
       <c r="AG23">
-        <v>0.06001237178430896</v>
+        <v>1.303980816757372E-10</v>
       </c>
     </row>
     <row r="24" spans="1:33">
@@ -2697,100 +2697,100 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>7.460221313746388</v>
+        <v>3.36858461440238</v>
       </c>
       <c r="C24">
-        <v>6.75401337253757</v>
+        <v>2.957702549255065</v>
       </c>
       <c r="D24">
-        <v>4.297934280864611</v>
+        <v>1.975445272219562</v>
       </c>
       <c r="E24">
-        <v>3.889951670414624</v>
+        <v>1.864753216142907</v>
       </c>
       <c r="F24">
-        <v>3.556071332061148</v>
+        <v>1.779835630772291</v>
       </c>
       <c r="G24">
-        <v>1.795077464009854</v>
+        <v>0.8270757249530487</v>
       </c>
       <c r="H24">
-        <v>1.582589673905039</v>
+        <v>0.6504457391372869</v>
       </c>
       <c r="I24">
-        <v>1.269706563537471</v>
+        <v>0.5769544189105485</v>
       </c>
       <c r="J24">
-        <v>0.9799761066700718</v>
+        <v>0.5123568995174337</v>
       </c>
       <c r="K24">
-        <v>0.8536048715093733</v>
+        <v>0.4610639301658315</v>
       </c>
       <c r="L24">
-        <v>0.7960412490892183</v>
+        <v>0.4066161769148828</v>
       </c>
       <c r="M24">
-        <v>0.781859896674257</v>
+        <v>0.4202441456689933</v>
       </c>
       <c r="N24">
-        <v>0.7158715845928811</v>
+        <v>0.3142265603763437</v>
       </c>
       <c r="O24">
-        <v>0.2708087807069005</v>
+        <v>0.2616903190883146</v>
       </c>
       <c r="P24">
-        <v>0.2105026800129612</v>
+        <v>0.2092352982015449</v>
       </c>
       <c r="Q24">
-        <v>0.1502613945915826</v>
+        <v>0.1568290268953286</v>
       </c>
       <c r="R24">
-        <v>0.09004562130809635</v>
+        <v>0.07832848151938041</v>
       </c>
       <c r="S24">
-        <v>-0.5241824548179299</v>
+        <v>-0.3138244912433488</v>
       </c>
       <c r="T24">
-        <v>0.4341824548179418</v>
+        <v>0.235524491243405</v>
       </c>
       <c r="U24">
-        <v>0.3422168540713999</v>
+        <v>0.1566904587986407</v>
       </c>
       <c r="V24">
-        <v>0.2518958673957791</v>
+        <v>0.0783273302080171</v>
       </c>
       <c r="W24">
-        <v>1.943415737331338</v>
+        <v>0.7857522940841457</v>
       </c>
       <c r="X24">
-        <v>1.841979986623304</v>
+        <v>0.4186061776662165</v>
       </c>
       <c r="Y24">
-        <v>1.401429398650897</v>
+        <v>0.05221545385383414</v>
       </c>
       <c r="Z24">
-        <v>1.623051600532743</v>
+        <v>0.754913550311055</v>
       </c>
       <c r="AA24">
-        <v>1.558374770941914</v>
+        <v>0.7019865199003998</v>
       </c>
       <c r="AB24">
-        <v>1.492261563318083</v>
+        <v>0.6489046957703137</v>
       </c>
       <c r="AC24">
-        <v>1.411049406565732</v>
+        <v>0.5416898694313608</v>
       </c>
       <c r="AD24">
-        <v>1.276058277701276</v>
+        <v>0.3661872993339118</v>
       </c>
       <c r="AE24">
-        <v>0.4217082997927116</v>
+        <v>0.2352515619861255</v>
       </c>
       <c r="AF24">
-        <v>0.2702124652709388</v>
+        <v>0.05220544842683427</v>
       </c>
       <c r="AG24">
-        <v>0.06001234326059217</v>
+        <v>1.306709640936255E-10</v>
       </c>
     </row>
     <row r="25" spans="1:33">
@@ -2798,100 +2798,100 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6.83369021457429</v>
+        <v>2.714757182837957</v>
       </c>
       <c r="C25">
-        <v>6.16870368569157</v>
+        <v>2.378099024560556</v>
       </c>
       <c r="D25">
-        <v>3.955031291051809</v>
+        <v>1.58190081175627</v>
       </c>
       <c r="E25">
-        <v>3.591047799870566</v>
+        <v>1.500811192638575</v>
       </c>
       <c r="F25">
-        <v>3.302172190746988</v>
+        <v>1.445229774592028</v>
       </c>
       <c r="G25">
-        <v>1.670493831677896</v>
+        <v>0.6617834977291993</v>
       </c>
       <c r="H25">
-        <v>1.45970297225165</v>
+        <v>0.5160903787810033</v>
       </c>
       <c r="I25">
-        <v>1.162221677148852</v>
+        <v>0.4592305095251888</v>
       </c>
       <c r="J25">
-        <v>0.9095981663208876</v>
+        <v>0.4080849174308377</v>
       </c>
       <c r="K25">
-        <v>0.7919943108286055</v>
+        <v>0.3679107015505158</v>
       </c>
       <c r="L25">
-        <v>0.7360890183777566</v>
+        <v>0.3232728651664064</v>
       </c>
       <c r="M25">
-        <v>0.725082130099631</v>
+        <v>0.3474066922470375</v>
       </c>
       <c r="N25">
-        <v>0.6598791416926559</v>
+        <v>0.2599012207841511</v>
       </c>
       <c r="O25">
-        <v>0.270807601239357</v>
+        <v>0.2164714955922502</v>
       </c>
       <c r="P25">
-        <v>0.2105019464639718</v>
+        <v>0.1730972887855343</v>
       </c>
       <c r="Q25">
-        <v>0.1502610130253744</v>
+        <v>0.1297564043370415</v>
       </c>
       <c r="R25">
-        <v>0.09004555476129072</v>
+        <v>0.06481944907926236</v>
       </c>
       <c r="S25">
-        <v>-0.4959812136776905</v>
+        <v>-0.2596271711018974</v>
       </c>
       <c r="T25">
-        <v>0.4059812136776844</v>
+        <v>0.1948271711018897</v>
       </c>
       <c r="U25">
-        <v>0.3142461546683856</v>
+        <v>0.1296618718509203</v>
       </c>
       <c r="V25">
-        <v>0.2239731840358824</v>
+        <v>0.0648186924002104</v>
       </c>
       <c r="W25">
-        <v>1.768116607542067</v>
+        <v>0.6498807686745144</v>
       </c>
       <c r="X25">
-        <v>1.668565084609522</v>
+        <v>0.3462873959524684</v>
       </c>
       <c r="Y25">
-        <v>1.231577709697032</v>
+        <v>0.04321055684916023</v>
       </c>
       <c r="Z25">
-        <v>1.505354026887673</v>
+        <v>0.6237756537122522</v>
       </c>
       <c r="AA25">
-        <v>1.441169864445197</v>
+        <v>0.5800799092330201</v>
       </c>
       <c r="AB25">
-        <v>1.375719837990943</v>
+        <v>0.5362787422542845</v>
       </c>
       <c r="AC25">
-        <v>1.296879255597878</v>
+        <v>0.4479601919704221</v>
       </c>
       <c r="AD25">
-        <v>1.163611573989221</v>
+        <v>0.3029363080397124</v>
       </c>
       <c r="AE25">
-        <v>0.4216985941345959</v>
+        <v>0.1946394592829512</v>
       </c>
       <c r="AF25">
-        <v>0.2702112573947151</v>
+        <v>0.04320371131694115</v>
       </c>
       <c r="AG25">
-        <v>0.0600122729654906</v>
+        <v>1.314377477570992E-10</v>
       </c>
     </row>
   </sheetData>
